--- a/biology/Zoologie/Balaenoptera/Balaenoptera.xlsx
+++ b/biology/Zoologie/Balaenoptera/Balaenoptera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Baleinoptère[1] (Balaenoptera) est un genre de rorquals, des baleines de la famille des Balénoptéridés.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Baleinoptère (Balaenoptera) est un genre de rorquals, des baleines de la famille des Balénoptéridés.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les baleines du genre Balaenoptera sont dénommées « rorquals », par opposition aux « baleines franches » (genres Balaena et Eubalaena) : elles s'en distinguent par une silhouette plus fuselée, la présence d'un aileron dorsal et une masse graisseuse moindre. 
-Les baleinoptères sont caractérisés par plusieurs sillons (entre 50 et 90) situés sur leurs abdomens[2]. 
+Les baleinoptères sont caractérisés par plusieurs sillons (entre 50 et 90) situés sur leurs abdomens. 
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Espèces actuelles
-Selon le World Register of Marine Species                               (23 août 2023)[3], le genre (possiblement paraphylétique) comprend neuf espèces actuelles :
+          <t>Espèces actuelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le World Register of Marine Species                               (23 août 2023), le genre (possiblement paraphylétique) comprend neuf espèces actuelles :
 Balaenoptera acutorostrata Lacépède, 1804 — Rorqual de Minke
 Balaenoptera bonaerensis Burmeister, 1867 — Petit rorqual de l'Antarctique
 Balaenoptera borealis Lesson, 1828 — Rorqual boréal (rorqual de Rudolphi)
@@ -563,8 +582,43 @@
 			Balaenoptera musculus
 			Balaenoptera omurai
 			Balaenoptera physalus
-Espèces fossiles
-Les plus anciens fossiles de ce genre datent du Néogène, soit d'il y a 20 à 3 millions d'années[4]. Selon la Paleobiology Database                   (23 août 2023)[4], les espèces suivantes ont été retrouvées dans les gisements fossiles :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Balaenoptera</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Balaenoptera</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plus anciens fossiles de ce genre datent du Néogène, soit d'il y a 20 à 3 millions d'années. Selon la Paleobiology Database                   (23 août 2023), les espèces suivantes ont été retrouvées dans les gisements fossiles :
 Balaenoptera borealina
 Balaenoptera musculoides
 Balaenoptera portisii
@@ -611,35 +665,72 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Balaenoptera</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Balaenoptera</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Balaenoptera Lacépède, 1804[3], publié en 1804 par le zoologiste français Bernard-Germain de Lacépède dans son Histoire naturelle des cétacées[1].
-Synonymes
-Balaenoptera a pour synonymes[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Balaenoptera Lacépède, 1804, publié en 1804 par le zoologiste français Bernard-Germain de Lacépède dans son Histoire naturelle des cétacées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Balaenoptera</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Balaenoptera</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Balaenoptera a pour synonymes :
 Agaphelus Cope, 1868
 Balaenopteris Tomilin, 1957
 Balenoptera Duméril, 1806
@@ -669,10 +760,80 @@
 Sibbaldus Gray, 1864
 Stenobalaena Gray, 1874
 Swinhoia Gray, 1866
-Phylogénie
-Le cladogramme suivant est modifié à partir d'un arbre phylogénétique construit par Rosel et al. (2021)[5] sur la base de l'ADN mitochondrial (utilisation d'une inférence bayésienne).
-Publication originale
-La Cépède, (Bernard Germain Etienne de La Ville sur Illon), M. le comte de, Histoire naturelle des cétacées,  (publication), Inconnu, Paris, 1804</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Balaenoptera</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Balaenoptera</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant est modifié à partir d'un arbre phylogénétique construit par Rosel et al. (2021) sur la base de l'ADN mitochondrial (utilisation d'une inférence bayésienne).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Balaenoptera</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Balaenoptera</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La Cépède, (Bernard Germain Etienne de La Ville sur Illon), M. le comte de, Histoire naturelle des cétacées,  (publication), Inconnu, Paris, 1804</t>
         </is>
       </c>
     </row>
